--- a/SM1- Table summarizing model outputs.xlsx
+++ b/SM1- Table summarizing model outputs.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="23256" windowHeight="12192" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="23256" windowHeight="12192"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>LocalResidents</t>
   </si>
@@ -118,16 +116,13 @@
   </si>
   <si>
     <t>Below, we summarize the standard effect sizes of both local and landscape effects on the ecosystem services evaluated and the respective indicator, the priority weight assigned by different stakeholders, and the management class according to the local vs. landscape effects.</t>
-  </si>
-  <si>
-    <t>Current average proportion of the different land-cover types, and past average proportion of grasslands within 8 a 1000-m landscape of each grassland plot in the three Biodiversity Exploratories region. Data from Le Provost et al. 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +146,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -206,11 +209,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,37 +552,37 @@
       <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
@@ -597,13 +601,13 @@
       <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -732,6 +736,9 @@
       <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -745,36 +752,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>